--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_296.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_296.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
+          <t>[('0:01:30.920000', '0:01:40.480000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:34.860000', '0:00:42.080000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_248</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.425</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['F#/4', 'B', 'E/5']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(3.44, 7.08)]</t>
+          <t>[('0:00:11.337709', '0:00:19.847823')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:07.431000', '0:02:12.656000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4555555555555556</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[('0:00:01.302038', '0:00:06.740158')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(83.76, 92.66)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(108.54, 120.72)]</t>
+          <t>[('0:01:21.100000', '0:01:27.580000'), ('0:00:13.480000', '0:00:20.960000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:09.620000', '0:00:14.180000'), ('0:00:01.880000', '0:00:06.560000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>[['A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(126.04, 127.58)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[('0:00:50.820000', '0:01:04.980000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(111.28, 124.16)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(38.9, 47.16)]</t>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7)]</t>
+          <t>[('0:01:30.140000', '0:01:38.780000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:01:46.960000', '0:01:59.340000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.82, 107.92)]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.78, 98.82)]</t>
+          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (55.72, 64.64), (0.82, 6.76)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0), (36.14, 37.58), (9.62, 14.18)]</t>
+          <t>[('0:00:09.480000', '0:00:33.680000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:44.180000', '0:01:01.660000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>schubert-winterreise_129</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+      <c r="D12" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[('0:01:21.100000', '0:01:27.580000'), ('0:00:13.480000', '0:00:20.960000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:08.200000', '0:00:12.660000'), ('0:00:00.780000', '0:00:05.260000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1107692307692308</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C', 'C/7']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(6.64, 13.6)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(10.937548, 16.810929)]</t>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.64, 6.7)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.88, 22.2)]</t>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(46.06, 55.66)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(23.42, 33.96)]</t>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(7.76, 15.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(17.9, 20.7)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
